--- a/prevention/ValueSet-EncounterClassCodes.xlsx
+++ b/prevention/ValueSet-EncounterClassCodes.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T12:57:23+02:00</t>
+    <t>2024-06-21T13:40:09+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/prevention/ValueSet-EncounterClassCodes.xlsx
+++ b/prevention/ValueSet-EncounterClassCodes.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T13:40:09+02:00</t>
+    <t>2024-06-19T12:57:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/prevention/ValueSet-EncounterClassCodes.xlsx
+++ b/prevention/ValueSet-EncounterClassCodes.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T12:57:23+02:00</t>
+    <t>2024-06-24T12:38:57+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
